--- a/로스트아크/데이터테이블/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784AF2A-24C6-4832-9093-FB1E28672CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1245E1B-6C67-41DC-93A4-670CC151F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -849,7 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{7579890E-DAC2-481B-AC4E-7BF3BD7527D5}">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{7579890E-DAC2-481B-AC4E-7BF3BD7527D5}">
       <text>
         <r>
           <rPr>
@@ -1539,7 +1539,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="164">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1601,37 +1601,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_info_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬 정보 id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Skill_Info_Table.xlsx 의 id)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2482,33 +2452,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm_skill_15_anim0.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_anim1.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_anim2.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_anim3.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx0.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx1.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx2.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx3.fbx</t>
-  </si>
-  <si>
     <t>lm_skill_15_sound.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 은하유성탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 적룡질풍격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_info_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스킬 정보 key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Skill_Info_Table.xlsx 의 skill_info_key)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWAKENING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASIC_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_IMMUNITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_26_vfx.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_26_sound.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_26_anim.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_anim.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_vfx.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_anim_var1.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_vfx_var1.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_anim_var2.fbx</t>
+  </si>
+  <si>
+    <t>lm_skill_15_anim_var3.fbx</t>
+  </si>
+  <si>
+    <t>lm_skill_15_vfx_var2.fbx</t>
+  </si>
+  <si>
+    <t>lm_skill_15_vfx_var3.fbx</t>
+  </si>
+  <si>
+    <t>기본 공격 - 집중 스탠스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 - 난무 스탠스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOCOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_anim.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_vfx.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_sound.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_anim_var1.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_vfx_var1.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_00_sound_var1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_sound_var1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_sound_var2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_15_sound_var3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기 - 난무 스탠스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVEMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_anim.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_vfx.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_sound.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기 - 집중 스탠스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_02_anim.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_02_vfx.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_02_sound.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[max_combo_cnt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 계수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3533,9 +3699,21 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3554,15 +3732,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3570,9 +3739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,10 +3768,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3905,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:AA62"/>
+  <dimension ref="B1:AA63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3926,11 +4088,11 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C3" s="19" t="s">
@@ -3964,7 +4126,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="26">
         <v>1</v>
@@ -3973,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>13</v>
@@ -3982,19 +4144,19 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="34"/>
@@ -4005,13 +4167,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="35"/>
@@ -4021,13 +4183,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="33"/>
@@ -4037,13 +4199,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="33"/>
@@ -4056,10 +4218,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="36"/>
@@ -4077,13 +4239,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="33"/>
@@ -4101,13 +4263,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="33"/>
@@ -4128,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="33"/>
@@ -4149,13 +4311,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="33"/>
@@ -4176,10 +4338,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="33"/>
@@ -4196,13 +4358,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="33"/>
@@ -4220,13 +4382,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -4235,13 +4397,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -4250,40 +4412,39 @@
         <v>14</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
       <c r="C20" s="8">
         <v>15</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="G20" s="1"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="30"/>
@@ -4291,13 +4452,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -4307,41 +4468,30 @@
         <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-    </row>
-    <row r="23" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B23" s="30"/>
+      <c r="C23" s="8">
+        <v>18</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -4364,7 +4514,11 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="1"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4387,315 +4541,314 @@
       <c r="Z24" s="24"/>
       <c r="AA24" s="24"/>
     </row>
-    <row r="25" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:27" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="G25" s="1"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+    </row>
+    <row r="26" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
-      <c r="C26" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:27" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
-      <c r="C27" s="38">
-        <v>0</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>65</v>
-      </c>
+      <c r="C27" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
+      <c r="C28" s="38">
+        <v>0</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
-      <c r="C29" s="38">
-        <v>1</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>67</v>
-      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
+      <c r="C30" s="38">
+        <v>1</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:27" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
-      <c r="C31" s="50">
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:27" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+      <c r="C32" s="50">
         <v>2</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:27" s="24" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="2"/>
-      <c r="C32" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="47" t="s">
+      <c r="D32" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" s="24" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="2"/>
+      <c r="C33" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="2"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75"/>
+      <c r="D33" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="81"/>
+      <c r="F33" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
-      <c r="C34" s="42">
-        <v>3</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>91</v>
-      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="42">
+        <v>3</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B36" s="2"/>
+      <c r="C36" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="2"/>
-      <c r="C36" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="49" t="s">
-        <v>85</v>
+      <c r="E36" s="70"/>
+      <c r="F36" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
+      <c r="C37" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="49" t="s">
+        <v>83</v>
+      </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
-      <c r="C38" s="42">
-        <v>4</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>70</v>
-      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
-      <c r="C39" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="48" t="s">
-        <v>69</v>
+      <c r="C39" s="42">
+        <v>4</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B40" s="2"/>
       <c r="C40" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="49" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="70"/>
+      <c r="F40" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
+      <c r="C41" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="69"/>
+      <c r="F41" s="49" t="s">
+        <v>76</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
-      <c r="C42" s="45">
-        <v>5</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>73</v>
-      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
-      <c r="C43" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="48" t="s">
-        <v>94</v>
+      <c r="C43" s="45">
+        <v>5</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B44" s="2"/>
       <c r="C44" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="79"/>
+        <v>86</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="70"/>
       <c r="F44" s="48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B45" s="2"/>
-      <c r="C45" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="49" t="s">
-        <v>99</v>
+      <c r="C45" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="70"/>
+      <c r="F45" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="2"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="75"/>
+      <c r="C46" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="69"/>
+      <c r="F46" s="49" t="s">
+        <v>97</v>
+      </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="2"/>
-      <c r="C47" s="42">
-        <v>6</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>74</v>
-      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B48" s="2"/>
-      <c r="C48" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="48" t="s">
+      <c r="C48" s="42">
+        <v>6</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G48" s="2"/>
@@ -4713,14 +4866,14 @@
     <row r="49" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="C49" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="79"/>
+        <v>86</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="70"/>
       <c r="F49" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="33"/>
@@ -4734,17 +4887,17 @@
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
     </row>
-    <row r="50" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B50" s="2"/>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="49" t="s">
-        <v>103</v>
+      <c r="E50" s="70"/>
+      <c r="F50" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="33"/>
@@ -4760,10 +4913,16 @@
     </row>
     <row r="51" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="2"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="75"/>
+      <c r="C51" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="69"/>
+      <c r="F51" s="49" t="s">
+        <v>101</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
@@ -4776,20 +4935,12 @@
       <c r="P51" s="33"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="2:17" s="24" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="2"/>
-      <c r="C52" s="38">
-        <v>7</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>75</v>
-      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="68"/>
       <c r="G52" s="2"/>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
@@ -4802,12 +4953,20 @@
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
     </row>
-    <row r="53" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:17" s="24" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="2"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="78"/>
+      <c r="C53" s="38">
+        <v>7</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>73</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
@@ -4820,20 +4979,12 @@
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
     </row>
-    <row r="54" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" s="2"/>
-      <c r="C54" s="42">
-        <v>8</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="44" t="s">
-        <v>76</v>
-      </c>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="79"/>
       <c r="G54" s="2"/>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
@@ -4846,17 +4997,19 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
     </row>
-    <row r="55" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B55" s="2"/>
-      <c r="C55" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="49" t="s">
-        <v>79</v>
+      <c r="C55" s="42">
+        <v>8</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="33"/>
@@ -4870,12 +5023,18 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
     </row>
-    <row r="56" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="C56" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="69"/>
+      <c r="F56" s="49" t="s">
+        <v>77</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33"/>
@@ -4980,10 +5139,10 @@
     </row>
     <row r="62" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="2"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
@@ -4996,30 +5155,48 @@
       <c r="P62" s="33"/>
       <c r="Q62" s="33"/>
     </row>
+    <row r="63" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B63" s="2"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C54:F54"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,21 +5207,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.8984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.69921875" style="2" customWidth="1"/>
     <col min="9" max="9" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
@@ -5052,14 +5229,15 @@
     <col min="12" max="12" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.8984375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="24"/>
+    <col min="15" max="15" width="10" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.8984375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="22.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -5067,66 +5245,69 @@
         <v>12</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>21</v>
-      </c>
       <c r="N1" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B2" s="2">
-        <v>305150</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30515</v>
+        <v>305000</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -5134,220 +5315,496 @@
       <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="4" t="b">
+      <c r="G2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L2" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="P2" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2">
+        <v>305001</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="2">
-        <v>305151</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30515</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L3" s="2">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="P3" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>144</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B4" s="2">
-        <v>305152</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30515</v>
+        <v>305010</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="J4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L4" s="2">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>153</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B5" s="2">
-        <v>305153</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30515</v>
+        <v>305020</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="J5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L5" s="2">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>305150</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="2">
+        <v>88</v>
+      </c>
+      <c r="M7" s="2">
+        <v>24</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2">
+        <v>305151</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="2">
+        <v>318</v>
+      </c>
+      <c r="M8" s="2">
+        <v>24</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2">
+        <v>305152</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="2">
+        <v>318</v>
+      </c>
+      <c r="M9" s="2">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2">
+        <v>305153</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="2">
+        <v>318</v>
+      </c>
+      <c r="M10" s="2">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="B13" s="2">
+        <v>305260</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2">
+        <v>305270</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1245E1B-6C67-41DC-93A4-670CC151F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649EAD9-ADB6-4B4C-97F6-3DB7A2233001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="19590" yWindow="0" windowWidth="9210" windowHeight="15600" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -150,29 +150,6 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>NORMAL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 일반 스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
           <t xml:space="preserve">
 IDENTITY</t>
         </r>
@@ -234,6 +211,30 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> : 초각성기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>NORMAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 일반 스킬
 </t>
         </r>
         <r>
@@ -653,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{83B18805-F8DE-4848-8E22-9DE56E7BA5D0}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{83B18805-F8DE-4848-8E22-9DE56E7BA5D0}">
       <text>
         <r>
           <rPr>
@@ -849,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{7579890E-DAC2-481B-AC4E-7BF3BD7527D5}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{7579890E-DAC2-481B-AC4E-7BF3BD7527D5}">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2C45AFE2-2570-4183-96E9-86A28402415B}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2C45AFE2-2570-4183-96E9-86A28402415B}">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{16987357-718F-419D-81E2-835C7034A9F3}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{16987357-718F-419D-81E2-835C7034A9F3}">
       <text>
         <r>
           <rPr>
@@ -1539,7 +1540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="163">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1906,183 +1907,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">마우스 위치 좌표를 기준으로 스킬을 사용하는 지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">확인
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(0) : 마우스 방향을 보며 스킬 사용 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1) : 마우스 위치 좌표에 스킬 사용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슈퍼 아머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cancellable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>스킬 캔슬 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 여부 (스킬 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시전 중 이동기 사용 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 여부)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(0) : 캔슬 불가능 // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1) : 캔슬 가능</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2675,6 +2500,63 @@
   </si>
   <si>
     <t>스킬 계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cursor_spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">마우스 커서가 스킬 사용 지점을 의미하는 지 확인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(0) : 마우스 커서 = 스킬 사용 방향 // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0) : 마우스 커서 = 스킬 사용 지점</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3699,6 +3581,27 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3708,37 +3611,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4067,34 +3949,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:AA63"/>
+  <dimension ref="B1:AA62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="70.296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" style="2" customWidth="1"/>
-    <col min="8" max="14" width="8.69921875" style="32" customWidth="1"/>
-    <col min="15" max="17" width="8.796875" style="32"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="70.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
+    <col min="8" max="14" width="8.75" style="32" customWidth="1"/>
+    <col min="15" max="17" width="8.75" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="71" t="s">
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
@@ -4109,7 +3991,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
@@ -4124,7 +4006,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
@@ -4142,7 +4024,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>22</v>
       </c>
@@ -4150,18 +4032,18 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
       <c r="C7" s="8">
         <v>3</v>
@@ -4178,39 +4060,39 @@
       <c r="G7" s="1"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="2:16" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" ht="27" x14ac:dyDescent="0.3">
       <c r="C8" s="8">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="8">
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -4234,7 +4116,7 @@
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="8">
         <v>6</v>
       </c>
@@ -4245,7 +4127,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="33"/>
@@ -4258,7 +4140,7 @@
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -4269,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="33"/>
@@ -4282,7 +4164,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -4293,7 +4175,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="33"/>
@@ -4306,18 +4188,18 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8">
         <v>9</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="33"/>
@@ -4328,20 +4210,19 @@
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="2:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8">
         <v>10</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="33"/>
@@ -4352,146 +4233,150 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
-    </row>
-    <row r="16" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" s="8">
         <v>11</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>34</v>
+      <c r="F16" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C17" s="8">
         <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C18" s="8">
         <v>13</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C19" s="8">
         <v>14</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
       <c r="C20" s="8">
         <v>15</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="30"/>
       <c r="C21" s="8">
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="30"/>
       <c r="C22" s="8">
         <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B23" s="30"/>
-      <c r="C23" s="8">
-        <v>18</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+    </row>
+    <row r="23" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="1"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -4514,11 +4399,7 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
     </row>
-    <row r="24" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4541,315 +4422,316 @@
       <c r="Z24" s="24"/>
       <c r="AA24" s="24"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="G25" s="1"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-    </row>
-    <row r="26" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:27" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="38">
+        <v>0</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="38">
+        <v>1</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:27" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="50">
+        <v>2</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:27" s="24" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="81"/>
+      <c r="F32" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="42">
+        <v>3</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="79"/>
+      <c r="F35" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+      <c r="C36" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="66"/>
+      <c r="F36" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="2"/>
-      <c r="C28" s="38">
-        <v>0</v>
-      </c>
-      <c r="D28" s="57" t="s">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="42">
+        <v>4</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="2"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="2"/>
-      <c r="C30" s="38">
-        <v>1</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="2"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:27" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="50">
-        <v>2</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" s="24" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="2"/>
-      <c r="C33" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="2"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="42">
-        <v>3</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="2"/>
-      <c r="C37" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="2"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="42">
-        <v>4</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>68</v>
-      </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="45">
+        <v>5</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="2"/>
-      <c r="C41" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="2"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="45">
-        <v>5</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>71</v>
+      <c r="E43" s="79"/>
+      <c r="F43" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="70"/>
+        <v>84</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="79"/>
       <c r="F44" s="48" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
-      <c r="C45" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="70" t="s">
+      <c r="C45" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="66"/>
+      <c r="F45" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="48" t="s">
-        <v>95</v>
-      </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
-      <c r="C46" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="69" t="s">
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="42">
+        <v>6</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+    </row>
+    <row r="48" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="2"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B48" s="2"/>
-      <c r="C48" s="42">
-        <v>6</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>72</v>
+      <c r="E48" s="79"/>
+      <c r="F48" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="33"/>
@@ -4863,17 +4745,17 @@
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
     </row>
-    <row r="49" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="70"/>
+        <v>84</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="79"/>
       <c r="F49" s="48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="33"/>
@@ -4887,17 +4769,17 @@
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
     </row>
-    <row r="50" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
-      <c r="C50" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="48" t="s">
-        <v>69</v>
+      <c r="C50" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="49" t="s">
+        <v>98</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="33"/>
@@ -4911,18 +4793,12 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
     </row>
-    <row r="51" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
-      <c r="C51" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="49" t="s">
-        <v>101</v>
-      </c>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
       <c r="G51" s="2"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
@@ -4935,12 +4811,20 @@
       <c r="P51" s="33"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:17" s="24" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="68"/>
+      <c r="C52" s="38">
+        <v>7</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
@@ -4953,20 +4837,12 @@
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
     </row>
-    <row r="53" spans="2:17" s="24" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
-      <c r="C53" s="38">
-        <v>7</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>73</v>
-      </c>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="78"/>
       <c r="G53" s="2"/>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
@@ -4979,12 +4855,20 @@
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
     </row>
-    <row r="54" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="79"/>
+      <c r="C54" s="42">
+        <v>8</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
@@ -4997,18 +4881,16 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
     </row>
-    <row r="55" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
-      <c r="C55" s="42">
-        <v>8</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="44" t="s">
+      <c r="C55" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="66"/>
+      <c r="F55" s="49" t="s">
         <v>74</v>
       </c>
       <c r="G55" s="2"/>
@@ -5023,18 +4905,12 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
     </row>
-    <row r="56" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
-      <c r="C56" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="69"/>
-      <c r="F56" s="49" t="s">
-        <v>77</v>
-      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="2"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33"/>
@@ -5047,7 +4923,7 @@
       <c r="P56" s="33"/>
       <c r="Q56" s="33"/>
     </row>
-    <row r="57" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="33"/>
@@ -5065,7 +4941,7 @@
       <c r="P57" s="33"/>
       <c r="Q57" s="33"/>
     </row>
-    <row r="58" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="33"/>
@@ -5083,7 +4959,7 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="33"/>
     </row>
-    <row r="59" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="33"/>
@@ -5101,7 +4977,7 @@
       <c r="P59" s="33"/>
       <c r="Q59" s="33"/>
     </row>
-    <row r="60" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="33"/>
@@ -5119,7 +4995,7 @@
       <c r="P60" s="33"/>
       <c r="Q60" s="33"/>
     </row>
-    <row r="61" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="33"/>
@@ -5137,12 +5013,12 @@
       <c r="P61" s="33"/>
       <c r="Q61" s="33"/>
     </row>
-    <row r="62" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
@@ -5155,48 +5031,30 @@
       <c r="P62" s="33"/>
       <c r="Q62" s="33"/>
     </row>
-    <row r="63" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B63" s="2"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5209,35 +5067,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.8984375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="22.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="22.75" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="24"/>
+    <col min="19" max="19" width="24.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.75" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -5245,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>28</v>
@@ -5254,19 +5112,19 @@
         <v>35</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>38</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>6</v>
@@ -5281,54 +5139,51 @@
         <v>27</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2">
         <v>305000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -5340,51 +5195,48 @@
         <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2">
         <v>305001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="2" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -5396,51 +5248,48 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2">
         <v>305010</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -5455,48 +5304,45 @@
         <v>4</v>
       </c>
       <c r="Q4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="B5" s="2">
         <v>305020</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -5511,19 +5357,19 @@
         <v>4</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -5531,26 +5377,23 @@
         <v>305150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="4" t="b">
-        <v>1</v>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L7" s="2">
         <v>88</v>
@@ -5562,45 +5405,42 @@
         <v>0</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2">
         <v>305151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="2" t="b">
-        <v>1</v>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L8" s="2">
         <v>318</v>
@@ -5612,45 +5452,42 @@
         <v>0</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2">
         <v>305152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="2" t="b">
-        <v>1</v>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L9" s="2">
         <v>318</v>
@@ -5662,45 +5499,42 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2">
         <v>305153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="2" t="b">
-        <v>1</v>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L10" s="2">
         <v>318</v>
@@ -5712,98 +5546,104 @@
         <v>0</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2">
         <v>305260</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>60</v>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="2" t="b">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="R13" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2">
         <v>305270</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649EAD9-ADB6-4B4C-97F6-3DB7A2233001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7818ECE8-0874-4620-A421-BED5767B670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19590" yWindow="0" windowWidth="9210" windowHeight="15600" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="4284" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -2200,10 +2200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총 지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>total_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2557,6 +2553,10 @@
       </rPr>
       <t>(0) : 마우스 커서 = 스킬 사용 지점</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 홀딩 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3581,9 +3581,21 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3602,15 +3614,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3618,9 +3621,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3951,32 +3951,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:AA62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="70.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
-    <col min="8" max="14" width="8.75" style="32" customWidth="1"/>
-    <col min="15" max="17" width="8.75" style="32"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="70.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="2" customWidth="1"/>
+    <col min="8" max="14" width="8.69921875" style="32" customWidth="1"/>
+    <col min="15" max="17" width="8.69921875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="67" t="s">
+    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
         <v>22</v>
       </c>
@@ -4032,18 +4032,18 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="30"/>
       <c r="C7" s="8">
         <v>3</v>
@@ -4060,23 +4060,23 @@
       <c r="G7" s="1"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="2:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C8" s="8">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C9" s="8">
         <v>6</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C11" s="8">
         <v>6</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C14" s="8">
         <v>9</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
     </row>
-    <row r="15" spans="2:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="8">
         <v>10</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C16" s="8">
         <v>11</v>
       </c>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C17" s="8">
         <v>12</v>
       </c>
@@ -4265,22 +4265,22 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C18" s="8">
         <v>13</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C19" s="8">
         <v>14</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="30"/>
       <c r="C20" s="8">
         <v>15</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="30"/>
       <c r="C21" s="8">
         <v>16</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="30"/>
       <c r="C22" s="8">
         <v>17</v>
@@ -4372,7 +4372,7 @@
       <c r="Z22" s="24"/>
       <c r="AA22" s="24"/>
     </row>
-    <row r="23" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
@@ -4399,7 +4399,7 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="G24" s="1"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4422,7 +4422,7 @@
       <c r="Z24" s="24"/>
       <c r="AA24" s="24"/>
     </row>
-    <row r="25" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -4430,16 +4430,16 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:27" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:27" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="38">
         <v>0</v>
@@ -4455,15 +4455,15 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="38">
         <v>1</v>
@@ -4479,15 +4479,15 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:27" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:27" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
       <c r="C31" s="50">
         <v>2</v>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:27" s="24" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" s="24" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="52" t="s">
         <v>83</v>
@@ -4517,15 +4517,15 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
       <c r="C34" s="42">
         <v>3</v>
@@ -4541,43 +4541,43 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
       <c r="C35" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="79"/>
+      <c r="E35" s="70"/>
       <c r="F35" s="48" t="s">
         <v>72</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="2"/>
       <c r="C36" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="66"/>
+      <c r="D36" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="69"/>
       <c r="F36" s="49" t="s">
         <v>80</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
       <c r="C38" s="42">
         <v>4</v>
@@ -4593,43 +4593,43 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
       <c r="C39" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="79" t="s">
+      <c r="D39" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="79"/>
+      <c r="E39" s="70"/>
       <c r="F39" s="48" t="s">
         <v>64</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="2"/>
       <c r="C40" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="66"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="49" t="s">
         <v>73</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B42" s="2"/>
       <c r="C42" s="45">
         <v>5</v>
@@ -4645,57 +4645,57 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
       <c r="C43" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="79"/>
+      <c r="D43" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="70"/>
       <c r="F43" s="48" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B44" s="2"/>
       <c r="C44" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="79" t="s">
+      <c r="D44" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="70"/>
+      <c r="F44" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="48" t="s">
-        <v>92</v>
-      </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="69"/>
+      <c r="F45" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="49" t="s">
-        <v>94</v>
-      </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="2"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="75"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B47" s="2"/>
       <c r="C47" s="42">
         <v>6</v>
@@ -4721,15 +4721,15 @@
       <c r="P47" s="33"/>
       <c r="Q47" s="33"/>
     </row>
-    <row r="48" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B48" s="2"/>
       <c r="C48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="79"/>
+      <c r="D48" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="70"/>
       <c r="F48" s="48" t="s">
         <v>67</v>
       </c>
@@ -4745,15 +4745,15 @@
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
     </row>
-    <row r="49" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="C49" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="79"/>
+      <c r="D49" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="70"/>
       <c r="F49" s="48" t="s">
         <v>66</v>
       </c>
@@ -4769,17 +4769,17 @@
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
     </row>
-    <row r="50" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="2"/>
       <c r="C50" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="66"/>
+        <v>94</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="69"/>
       <c r="F50" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="33"/>
@@ -4793,12 +4793,12 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
     </row>
-    <row r="51" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="2"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="75"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="2"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
@@ -4811,7 +4811,7 @@
       <c r="P51" s="33"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="2:17" s="24" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:17" s="24" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="2"/>
       <c r="C52" s="38">
         <v>7</v>
@@ -4837,12 +4837,12 @@
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
     </row>
-    <row r="53" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="2"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="78"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79"/>
       <c r="G53" s="2"/>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
@@ -4855,7 +4855,7 @@
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
     </row>
-    <row r="54" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B54" s="2"/>
       <c r="C54" s="42">
         <v>8</v>
@@ -4881,15 +4881,15 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
     </row>
-    <row r="55" spans="2:17" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="2"/>
       <c r="C55" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="66"/>
+      <c r="D55" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="69"/>
       <c r="F55" s="49" t="s">
         <v>74</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
     </row>
-    <row r="56" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="33"/>
@@ -4923,7 +4923,7 @@
       <c r="P56" s="33"/>
       <c r="Q56" s="33"/>
     </row>
-    <row r="57" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="33"/>
@@ -4941,7 +4941,7 @@
       <c r="P57" s="33"/>
       <c r="Q57" s="33"/>
     </row>
-    <row r="58" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="33"/>
@@ -4959,7 +4959,7 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="33"/>
     </row>
-    <row r="59" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="33"/>
@@ -4977,7 +4977,7 @@
       <c r="P59" s="33"/>
       <c r="Q59" s="33"/>
     </row>
-    <row r="60" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="33"/>
@@ -4995,7 +4995,7 @@
       <c r="P60" s="33"/>
       <c r="Q60" s="33"/>
     </row>
-    <row r="61" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="33"/>
@@ -5013,7 +5013,7 @@
       <c r="P61" s="33"/>
       <c r="Q61" s="33"/>
     </row>
-    <row r="62" spans="2:17" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
       <c r="C62" s="5"/>
       <c r="D62" s="2"/>
@@ -5033,12 +5033,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C26:E26"/>
@@ -5055,6 +5049,12 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5067,35 +5067,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="22.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.8984375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="22.69921875" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.75" style="24"/>
+    <col min="19" max="19" width="24.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.69921875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>28</v>
@@ -5139,7 +5139,7 @@
         <v>27</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>8</v>
@@ -5154,18 +5154,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2">
         <v>305000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -5174,16 +5174,16 @@
         <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -5195,30 +5195,30 @@
         <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2">
         <v>305001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -5248,30 +5248,30 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2">
         <v>305010</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -5304,27 +5304,27 @@
         <v>4</v>
       </c>
       <c r="Q4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="S4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="B5" s="2">
         <v>305020</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -5357,19 +5357,19 @@
         <v>4</v>
       </c>
       <c r="Q5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -5377,10 +5377,10 @@
         <v>305150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -5390,10 +5390,10 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="L7" s="2">
         <v>88</v>
@@ -5405,30 +5405,30 @@
         <v>0</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2">
         <v>305151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -5437,10 +5437,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="L8" s="2">
         <v>318</v>
@@ -5452,30 +5452,30 @@
         <v>0</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="S8" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2">
         <v>305152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -5484,10 +5484,10 @@
         <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="L9" s="2">
         <v>318</v>
@@ -5499,30 +5499,30 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2">
         <v>305153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -5531,10 +5531,10 @@
         <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="L10" s="2">
         <v>318</v>
@@ -5546,36 +5546,36 @@
         <v>0</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2">
         <v>305260</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>1</v>
@@ -5593,57 +5593,57 @@
         <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="R13" s="7" t="s">
+      <c r="S13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2">
         <v>305270</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7818ECE8-0874-4620-A421-BED5767B670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F726A1-9C47-4389-91B0-F5F0BED34212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1540,7 +1540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1903,10 +1903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_mouse_position_based</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슈퍼 아머</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2064,10 +2060,6 @@
   </si>
   <si>
     <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2559,6 +2551,78 @@
     <t>총 홀딩 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>청룡진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">청룡진 - </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 시전 가능 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PUSH_IMMUNITY,DEBUFF_IMMUNITY]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_27_anim.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_27_vfx.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_27_sound.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포 - 변형 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_anim.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_anim_var1.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_sound.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_sound_var1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_vfx.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_25_vfx_var1.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2568,7 +2632,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0&quot;, &quot;0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2723,6 +2787,40 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3382,7 +3480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3392,19 +3490,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3431,9 +3520,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3494,9 +3580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3581,6 +3664,27 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3590,43 +3694,49 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3951,1088 +4061,1094 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="4.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="2" customWidth="1"/>
     <col min="6" max="6" width="70.19921875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" style="2" customWidth="1"/>
-    <col min="8" max="14" width="8.69921875" style="32" customWidth="1"/>
-    <col min="15" max="17" width="8.69921875" style="32"/>
+    <col min="8" max="14" width="8.69921875" style="28" customWidth="1"/>
+    <col min="15" max="17" width="8.69921875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>116</v>
+      <c r="F6" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
-      <c r="C7" s="8">
+      <c r="B7" s="26"/>
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="27" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="35"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:16" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>161</v>
+      <c r="F8" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C10" s="8">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C12" s="5">
         <v>7</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C11" s="8">
+      <c r="F13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="C18" s="5">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="C19" s="5">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B20" s="26"/>
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C12" s="8">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C13" s="8">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="F20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="5">
         <v>16</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C14" s="8">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-    </row>
-    <row r="15" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="8">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B22" s="26"/>
+      <c r="C22" s="5">
         <v>17</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C16" s="8">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="C17" s="8">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="C18" s="8">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="C19" s="8">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
-      <c r="C20" s="8">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
-      <c r="C21" s="8">
-        <v>16</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
-      <c r="C22" s="8">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="G24" s="1"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-    </row>
-    <row r="25" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+    </row>
+    <row r="25" spans="2:27" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:27" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:27" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
-      <c r="C26" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
+      <c r="C26" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:27" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
-      <c r="C27" s="38">
+      <c r="C27" s="33">
         <v>0</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:27" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="2"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:27" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="2"/>
+      <c r="C29" s="33">
+        <v>1</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="2"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="2"/>
-      <c r="C29" s="38">
-        <v>1</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="59" t="s">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:27" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="2"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:27" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="45">
+        <v>2</v>
+      </c>
+      <c r="D31" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="E31" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:27" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="2"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:27" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="50">
-        <v>2</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="60" t="s">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:27" s="20" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="2"/>
+      <c r="C32" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="76"/>
+      <c r="F32" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="2"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B34" s="2"/>
+      <c r="C34" s="37">
+        <v>3</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F34" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B35" s="2"/>
+      <c r="C35" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="74"/>
+      <c r="F35" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="2"/>
+      <c r="C36" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="2"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B38" s="2"/>
+      <c r="C38" s="37">
+        <v>4</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B39" s="2"/>
+      <c r="C39" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="74"/>
+      <c r="F39" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:27" s="24" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="2"/>
-      <c r="C32" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="80" t="s">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="2"/>
+      <c r="C40" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="47" t="s">
+      <c r="D40" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="2"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B42" s="2"/>
+      <c r="C42" s="40">
+        <v>5</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B43" s="2"/>
+      <c r="C43" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="2"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="42">
-        <v>3</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="2"/>
-      <c r="C36" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="2"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="42">
-        <v>4</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="44" t="s">
+      <c r="D43" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="C44" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="74"/>
+      <c r="F44" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="2"/>
+      <c r="C45" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="61"/>
+      <c r="F45" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="2"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B47" s="2"/>
+      <c r="C47" s="37">
+        <v>6</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+    </row>
+    <row r="48" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B48" s="2"/>
+      <c r="C48" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+    </row>
+    <row r="49" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B49" s="2"/>
+      <c r="C49" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="74"/>
+      <c r="F49" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="2"/>
-      <c r="C40" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="49" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+    </row>
+    <row r="50" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="2"/>
+      <c r="C50" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="61"/>
+      <c r="F50" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+    </row>
+    <row r="51" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="2"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+    </row>
+    <row r="52" spans="2:17" s="20" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="2"/>
+      <c r="C52" s="33">
+        <v>7</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+    </row>
+    <row r="53" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="2"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+    </row>
+    <row r="54" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B54" s="2"/>
+      <c r="C54" s="37">
+        <v>8</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+    </row>
+    <row r="55" spans="2:17" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="2"/>
+      <c r="C55" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="61"/>
+      <c r="F55" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="2"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B42" s="2"/>
-      <c r="C42" s="45">
-        <v>5</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B44" s="2"/>
-      <c r="C44" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="2"/>
-      <c r="C45" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="2"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B47" s="2"/>
-      <c r="C47" s="42">
-        <v>6</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-    </row>
-    <row r="48" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B48" s="2"/>
-      <c r="C48" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-    </row>
-    <row r="49" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B49" s="2"/>
-      <c r="C49" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-    </row>
-    <row r="50" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="2"/>
-      <c r="C50" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-    </row>
-    <row r="51" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="2"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-    </row>
-    <row r="52" spans="2:17" s="24" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="2"/>
-      <c r="C52" s="38">
-        <v>7</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-    </row>
-    <row r="53" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="2"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-    </row>
-    <row r="54" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B54" s="2"/>
-      <c r="C54" s="42">
-        <v>8</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-    </row>
-    <row r="55" spans="2:17" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="2"/>
-      <c r="C55" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="69"/>
-      <c r="F55" s="49" t="s">
-        <v>74</v>
-      </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-    </row>
-    <row r="56" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+    </row>
+    <row r="56" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-    </row>
-    <row r="57" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+    </row>
+    <row r="57" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-    </row>
-    <row r="58" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+    </row>
+    <row r="58" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-    </row>
-    <row r="59" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+    </row>
+    <row r="59" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-    </row>
-    <row r="60" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+    </row>
+    <row r="60" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-    </row>
-    <row r="61" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+    </row>
+    <row r="61" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-    </row>
-    <row r="62" spans="2:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+    </row>
+    <row r="62" spans="2:17" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C26:E26"/>
@@ -5049,12 +5165,6 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5065,586 +5175,741 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13:S13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.69921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.8984375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="22.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.69921875" style="24"/>
+    <col min="1" max="1" width="20.09765625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" style="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="82" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.69921875" style="82" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.09765625" style="82" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="82" customWidth="1"/>
+    <col min="16" max="16" width="9.8984375" style="83" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" style="83" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" style="83" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.19921875" style="83" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.69921875" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:19" s="79" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="82">
+        <v>305000</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="82">
+        <v>0</v>
+      </c>
+      <c r="M2" s="82">
+        <v>0</v>
+      </c>
+      <c r="N2" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="82">
+        <v>305001</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="82">
+        <v>0</v>
+      </c>
+      <c r="M3" s="82">
+        <v>0</v>
+      </c>
+      <c r="N3" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="82">
+        <v>305010</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="82">
+        <v>0</v>
+      </c>
+      <c r="M4" s="82">
+        <v>6</v>
+      </c>
+      <c r="N4" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="82">
+        <v>305020</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="82">
+        <v>0</v>
+      </c>
+      <c r="M5" s="82">
+        <v>6</v>
+      </c>
+      <c r="N5" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="81"/>
+    </row>
+    <row r="7" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="82">
+        <v>305150</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="82">
+        <v>88</v>
+      </c>
+      <c r="M7" s="82">
+        <v>24</v>
+      </c>
+      <c r="N7" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="S7" s="83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="82">
+        <v>305151</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="82">
+        <v>318</v>
+      </c>
+      <c r="M8" s="82">
+        <v>24</v>
+      </c>
+      <c r="N8" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="82">
+        <v>305152</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="82">
+        <v>318</v>
+      </c>
+      <c r="M9" s="82">
+        <v>24</v>
+      </c>
+      <c r="N9" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="82">
+        <v>305153</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="82">
+        <v>318</v>
+      </c>
+      <c r="M10" s="82">
+        <v>24</v>
+      </c>
+      <c r="N10" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" s="83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="84"/>
+    </row>
+    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="82">
+        <v>305180</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="82">
+        <v>305181</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="84"/>
+    </row>
+    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="82">
+        <v>305250</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="82">
+        <v>0</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="S15" s="83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="82">
+        <v>305251</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="82">
+        <v>0</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="82">
+        <v>305260</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="2">
-        <v>305000</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E17" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="82">
+        <v>20</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="82">
+        <v>300</v>
+      </c>
+      <c r="N17" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" s="83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="82">
+        <v>305270</v>
+      </c>
+      <c r="C18" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="2" t="b">
+      <c r="D18" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="F18" s="82">
+        <v>0</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="82">
+        <v>300</v>
+      </c>
+      <c r="N18" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="2">
-        <v>305001</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="2">
-        <v>305010</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="2">
-        <v>305020</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2">
-        <v>305150</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="2">
-        <v>88</v>
-      </c>
-      <c r="M7" s="2">
-        <v>24</v>
-      </c>
-      <c r="N7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="2">
-        <v>305151</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="2">
-        <v>318</v>
-      </c>
-      <c r="M8" s="2">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2">
-        <v>305152</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="2">
-        <v>318</v>
-      </c>
-      <c r="M9" s="2">
-        <v>24</v>
-      </c>
-      <c r="N9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="2">
-        <v>305153</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="2">
-        <v>318</v>
-      </c>
-      <c r="M10" s="2">
-        <v>24</v>
-      </c>
-      <c r="N10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2">
-        <v>305260</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="2">
-        <v>305270</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
+      <c r="Q18" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="R18" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="S18" s="83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="81"/>
+    </row>
+    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="81"/>
+    </row>
+    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="81"/>
+    </row>
+    <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="81"/>
+    </row>
+    <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="81"/>
+    </row>
+    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="81"/>
+    </row>
+    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CAE7A-E45E-4993-980D-4C5F77B3DADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D40A9D-E33D-4FA4-AC67-551D060395D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1229,6 +1229,104 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8516E8C4-FD3B-4BE1-8AEC-3ED0D5711F12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[시전 가능 거리]
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> 제자리 시전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+1 ~ :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(m)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">이내의 거리에 시전
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2C45AFE2-2570-4183-96E9-86A28402415B}">
       <text>
         <r>
@@ -1590,7 +1688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,30 +1818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 리소스 파일 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비주얼 이펙트 리소스 파일 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드 리소스 파일 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfx_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NORMAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1959,17 +2033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맹룡열파 변형 모션 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹룡열파 변형 모션 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹룡열파 변형 모션 3</t>
-  </si>
-  <si>
     <t>NORMAL_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1985,10 +2048,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm_skill_15_sound.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연가창식: 은하유성탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2037,46 +2096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm_skill_26_vfx.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_26_sound.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_26_anim.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_anim.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_anim_var1.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx_var1.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_anim_var2.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_anim_var3.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx_var2.fbx</t>
-  </si>
-  <si>
-    <t>lm_skill_15_vfx_var3.fbx</t>
-  </si>
-  <si>
     <t>기본 공격 - 집중 스탠스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2089,42 +2108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm_skill_00_anim.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_00_vfx.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_00_sound.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_00_anim_var1.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_00_vfx_var1.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_00_sound_var1.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_sound_var1.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_sound_var2.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_15_sound_var3.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LANCEMASTER_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2137,18 +2120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm_skill_01_anim.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_01_vfx.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_01_sound.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동기 - 집중 스탠스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2157,18 +2128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm_skill_02_anim.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_02_vfx.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_02_sound.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[max_combo_cnt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2197,10 +2156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">청룡진 - </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LANCEMASTER_18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2218,46 +2173,6 @@
   </si>
   <si>
     <t>NORMAL_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_27_anim.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_27_vfx.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_27_sound.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적룡포 - 변형 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_25_anim.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_25_anim_var1.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_25_sound.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_25_sound_var1.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_25_vfx.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_25_vfx_var1.fbx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2693,6 +2608,34 @@
     <t>holding_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>청룡진 [내려치는 창]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포 [진화하는 창술]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹룡열파 [추가 베기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weak_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위 파괴 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2702,7 +2645,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0&quot;, &quot;0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2856,6 +2799,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2913,7 +2864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3515,13 +3466,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3782,6 +3783,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4103,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:Q61"/>
+  <dimension ref="B1:Q62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -4182,24 +4195,24 @@
         <v>22</v>
       </c>
       <c r="C6" s="67">
-        <f t="shared" ref="C6:C22" si="0">ROW(C6)-4</f>
+        <f>ROW(C6)-4</f>
         <v>2</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="25"/>
       <c r="C7" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C7)-4</f>
         <v>3</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -4209,43 +4222,43 @@
         <v>16</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C8" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C8)-4</f>
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C9" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C9)-4</f>
         <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C10" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C10)-4</f>
         <v>6</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -4255,13 +4268,13 @@
         <v>16</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C11" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C11)-4</f>
         <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -4271,12 +4284,12 @@
         <v>23</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C12" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C12)-4</f>
         <v>8</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -4286,12 +4299,12 @@
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C13" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C13)-4</f>
         <v>9</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -4306,7 +4319,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C14" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C14)-4</f>
         <v>10</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -4321,7 +4334,7 @@
     </row>
     <row r="15" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C15)-4</f>
         <v>11</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -4336,7 +4349,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C16" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C16)-4</f>
         <v>12</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -4346,12 +4359,12 @@
         <v>10</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C17" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C17)-4</f>
         <v>13</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -4361,27 +4374,27 @@
         <v>29</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C18" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C18)-4</f>
         <v>14</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C19" s="26">
-        <f t="shared" si="0"/>
+        <f>ROW(C19)-4</f>
         <v>15</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -4394,81 +4407,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="25"/>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C20" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C20:C22" si="0">ROW(C20)-4</f>
         <v>16</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="25"/>
+      <c r="D20" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C21" s="26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="25"/>
+      <c r="D21" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C22" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+    </row>
+    <row r="24" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4480,7 +4468,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.4">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4492,13 +4480,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="3"/>
+    <row r="26" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -4510,19 +4492,13 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="39">
-        <v>0</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>55</v>
-      </c>
+    <row r="27" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -4534,11 +4510,19 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
+    <row r="28" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="39">
+        <v>0</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>49</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -4550,19 +4534,11 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="39">
-        <v>1</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>57</v>
-      </c>
+    <row r="29" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -4574,11 +4550,19 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
+    <row r="30" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="39">
+        <v>1</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -4590,19 +4574,11 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C31" s="43">
-        <v>2</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>58</v>
-      </c>
+    <row r="31" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -4614,16 +4590,18 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="86"/>
-      <c r="F32" s="48" t="s">
-        <v>73</v>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C32" s="43">
+        <v>2</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -4636,11 +4614,17 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
+    <row r="33" spans="3:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="86"/>
+      <c r="F33" s="48" t="s">
+        <v>67</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -4652,19 +4636,11 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C34" s="49">
-        <v>3</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>78</v>
-      </c>
+    <row r="34" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="80"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -4677,15 +4653,17 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C35" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="54" t="s">
-        <v>67</v>
+      <c r="C35" s="49">
+        <v>3</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -4698,16 +4676,16 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="56" t="s">
-        <v>72</v>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C36" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="84"/>
+      <c r="F36" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -4721,10 +4699,16 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="80"/>
+      <c r="C37" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="71"/>
+      <c r="F37" s="56" t="s">
+        <v>66</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -4736,19 +4720,11 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C38" s="49">
-        <v>4</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>60</v>
-      </c>
+    <row r="38" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="80"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -4761,15 +4737,17 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C39" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="54" t="s">
-        <v>59</v>
+      <c r="C39" s="49">
+        <v>4</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -4782,16 +4760,16 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C40" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="56" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="84"/>
+      <c r="F40" s="54" t="s">
+        <v>53</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -4805,10 +4783,16 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="80"/>
+      <c r="C41" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="56" t="s">
+        <v>62</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -4820,19 +4804,11 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C42" s="59">
-        <v>5</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>63</v>
-      </c>
+    <row r="42" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="80"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -4845,15 +4821,17 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C43" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="54" t="s">
-        <v>151</v>
+      <c r="C43" s="59">
+        <v>5</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -4868,14 +4846,14 @@
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C44" s="53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D44" s="84" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="E44" s="84"/>
       <c r="F44" s="54" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -4888,16 +4866,16 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="56" t="s">
-        <v>84</v>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C45" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="84"/>
+      <c r="F45" s="54" t="s">
+        <v>76</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -4911,10 +4889,16 @@
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="78"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="80"/>
+      <c r="C46" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="71"/>
+      <c r="F46" s="56" t="s">
+        <v>78</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -4926,113 +4910,123 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C47" s="49">
+    <row r="47" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="80"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C48" s="49">
         <v>6</v>
       </c>
-      <c r="D47" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C48" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="54" t="s">
-        <v>62</v>
+      <c r="D48" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C49" s="53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D49" s="84" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E49" s="84"/>
       <c r="F49" s="54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="56" t="s">
-        <v>88</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C50" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="84"/>
+      <c r="F50" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="80"/>
+      <c r="C51" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="71"/>
+      <c r="F51" s="56" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="52" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="39">
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="80"/>
+    </row>
+    <row r="53" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="39">
         <v>7</v>
       </c>
-      <c r="D52" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="83"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C54" s="49">
+      <c r="D53" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="83"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C55" s="49">
         <v>8</v>
       </c>
-      <c r="D54" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C55" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="71"/>
-      <c r="F55" s="56" t="s">
+      <c r="D55" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="55" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C56" s="10"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D56" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="71"/>
+      <c r="F56" s="56" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C57" s="10"/>
@@ -5064,30 +5058,36 @@
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C62" s="10"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C54:F54"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5098,10 +5098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5122,13 +5122,10 @@
     <col min="14" max="14" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.796875" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.19921875" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5136,16 +5133,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -5172,92 +5169,80 @@
         <v>26</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B2" s="6">
         <v>305000</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="N2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B3" s="6">
         <v>305001</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E3" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>4</v>
@@ -5266,51 +5251,45 @@
         <v>4</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="N3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B4" s="6">
         <v>305010</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>4</v>
@@ -5319,13 +5298,13 @@
         <v>4</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="M4" s="6">
         <v>6</v>
@@ -5336,34 +5315,28 @@
       <c r="P4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6">
         <v>305020</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E5" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>4</v>
@@ -5372,13 +5345,13 @@
         <v>4</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="M5" s="6">
         <v>6</v>
@@ -5389,20 +5362,11 @@
       <c r="P5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -5410,23 +5374,26 @@
         <v>305150</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L7" s="6">
         <v>88</v>
@@ -5438,42 +5405,36 @@
         <v>0</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B8" s="6">
         <v>305151</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E8" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
       <c r="G8" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L8" s="6">
         <v>318</v>
@@ -5485,199 +5446,184 @@
         <v>0</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="6">
+        <v>305180</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="6">
-        <v>305152</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="6">
-        <v>318</v>
-      </c>
-      <c r="M9" s="6">
-        <v>24</v>
-      </c>
-      <c r="N9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="6">
-        <v>305153</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E10" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="6">
+        <v>305181</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="6">
+        <v>305250</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="6">
+        <v>305251</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="6">
+        <v>305260</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="6">
-        <v>318</v>
-      </c>
-      <c r="M10" s="6">
-        <v>24</v>
-      </c>
-      <c r="N10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="6">
-        <v>305180</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="6">
-        <v>305181</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="6">
-        <v>305250</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="E15" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="6">
+        <v>300</v>
       </c>
       <c r="N15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6">
-        <v>305251</v>
+        <v>305270</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6" t="b">
         <v>0</v>
@@ -5686,153 +5632,47 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="6">
+        <v>300</v>
       </c>
       <c r="N16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="6">
-        <v>305260</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>20</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="6">
-        <v>300</v>
-      </c>
-      <c r="N17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="6">
-        <v>305270</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="6">
-        <v>300</v>
-      </c>
-      <c r="N18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D40A9D-E33D-4FA4-AC67-551D060395D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34482DF-5539-422D-AE94-051B449B16FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1688,7 +1688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="146">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2088,10 +2088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEBUFF_IMMUNITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2137,10 +2133,6 @@
   </si>
   <si>
     <t>coefficient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 계수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2634,6 +2626,42 @@
   </si>
   <si>
     <t>부위 파괴 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.0,0.6,0.9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[max_charge_lv,charge_time_per_lv,rotation_angle]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2.5,180]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[holding_time]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 계수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[holding_time,perfect_zone_start,perfect_zone_end]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2864,7 +2892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -3467,19 +3495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -3522,7 +3537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3736,9 +3751,30 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3757,15 +3793,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3775,26 +3802,11 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4116,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:Q62"/>
+  <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -4138,11 +4150,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="13" t="s">
@@ -4177,7 +4189,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="21">
-        <f>ROW(C5)-4</f>
+        <f t="shared" ref="C5:C19" si="0">ROW(C5)-4</f>
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -4195,7 +4207,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="67">
-        <f>ROW(C6)-4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" s="68" t="s">
@@ -4205,14 +4217,14 @@
         <v>23</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="25"/>
       <c r="C7" s="26">
-        <f>ROW(C7)-4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -4222,28 +4234,28 @@
         <v>16</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
       <c r="C8" s="26">
-        <f>ROW(C8)-4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C9" s="26">
-        <f>ROW(C9)-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -4253,12 +4265,12 @@
         <v>10</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C10" s="26">
-        <f>ROW(C10)-4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -4268,13 +4280,13 @@
         <v>16</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C11" s="26">
-        <f>ROW(C11)-4</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -4284,12 +4296,12 @@
         <v>23</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C12" s="26">
-        <f>ROW(C12)-4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -4299,12 +4311,12 @@
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C13" s="26">
-        <f>ROW(C13)-4</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -4319,7 +4331,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C14" s="26">
-        <f>ROW(C14)-4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -4334,7 +4346,7 @@
     </row>
     <row r="15" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="26">
-        <f>ROW(C15)-4</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -4349,7 +4361,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C16" s="26">
-        <f>ROW(C16)-4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -4359,12 +4371,12 @@
         <v>10</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C17" s="26">
-        <f>ROW(C17)-4</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -4374,27 +4386,27 @@
         <v>29</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C18" s="26">
-        <f>ROW(C18)-4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C19" s="26">
-        <f>ROW(C19)-4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -4409,54 +4421,63 @@
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C20" s="26">
-        <f t="shared" ref="C20:C22" si="0">ROW(C20)-4</f>
+        <f t="shared" ref="C20:C21" si="1">ROW(C20)-4</f>
         <v>16</v>
       </c>
-      <c r="D20" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="89" t="s">
+      <c r="D20" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="90" t="s">
-        <v>136</v>
+      <c r="F20" s="73" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C21" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D21" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C22" s="26">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="F21" s="73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4468,7 +4489,13 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4481,6 +4508,18 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="39">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -4493,12 +4532,10 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -4512,16 +4549,16 @@
     </row>
     <row r="28" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C28" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -4535,10 +4572,10 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -4550,18 +4587,18 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="39">
-        <v>1</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>51</v>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C30" s="43">
+        <v>2</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -4574,11 +4611,17 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
+    <row r="31" spans="3:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="89"/>
+      <c r="F31" s="48" t="s">
+        <v>67</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -4590,19 +4633,11 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C32" s="43">
-        <v>2</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>52</v>
-      </c>
+    <row r="32" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -4614,16 +4649,18 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="3:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="48" t="s">
-        <v>67</v>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C33" s="49">
+        <v>3</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -4636,11 +4673,17 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="80"/>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C34" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -4652,18 +4695,16 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C35" s="49">
-        <v>3</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>72</v>
+    <row r="35" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="77"/>
+      <c r="F35" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -4676,17 +4717,11 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C36" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="54" t="s">
-        <v>61</v>
-      </c>
+    <row r="36" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="76"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -4698,16 +4733,18 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="56" t="s">
-        <v>66</v>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C37" s="49">
+        <v>4</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -4720,11 +4757,17 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="80"/>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C38" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="78"/>
+      <c r="F38" s="54" t="s">
+        <v>53</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -4736,18 +4779,16 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C39" s="49">
-        <v>4</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>54</v>
+    <row r="39" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="77"/>
+      <c r="F39" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -4760,17 +4801,11 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="54" t="s">
-        <v>53</v>
-      </c>
+    <row r="40" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -4782,16 +4817,18 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="56" t="s">
-        <v>62</v>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C41" s="59">
+        <v>5</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4804,11 +4841,17 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="80"/>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="78"/>
+      <c r="F42" s="54" t="s">
+        <v>113</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -4821,17 +4864,15 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C43" s="59">
-        <v>5</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>57</v>
+      <c r="C43" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="78"/>
+      <c r="F43" s="54" t="s">
+        <v>76</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -4844,16 +4885,16 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C44" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="54" t="s">
-        <v>115</v>
+    <row r="44" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="77"/>
+      <c r="F44" s="56" t="s">
+        <v>78</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -4866,17 +4907,11 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="84"/>
-      <c r="F45" s="54" t="s">
-        <v>76</v>
-      </c>
+    <row r="45" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="76"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -4888,145 +4923,119 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="55" t="s">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C46" s="49">
+        <v>6</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C47" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="78"/>
+      <c r="F47" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C48" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="78"/>
+      <c r="F48" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="78"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="80"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C48" s="49">
-        <v>6</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C49" s="53" t="s">
+      <c r="D49" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="77"/>
+      <c r="F49" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="76"/>
+    </row>
+    <row r="51" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="39">
+        <v>7</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="85"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="87"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C53" s="49">
+        <v>8</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C50" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="71"/>
-      <c r="F51" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="80"/>
-    </row>
-    <row r="53" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="39">
-        <v>7</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="83"/>
+      <c r="D54" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="77"/>
+      <c r="F54" s="56" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C55" s="49">
-        <v>8</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="71"/>
-      <c r="F56" s="56" t="s">
-        <v>63</v>
-      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C56" s="10"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C57" s="10"/>
@@ -5052,42 +5061,30 @@
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C61" s="10"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C62" s="10"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C27:F27"/>
     <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5100,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5113,7 +5110,7 @@
     <col min="5" max="5" width="9.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.3984375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="6" bestFit="1" customWidth="1"/>
@@ -5139,7 +5136,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>64</v>
@@ -5169,7 +5166,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>8</v>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6">
         <v>305000</v>
@@ -5198,16 +5195,16 @@
         <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
@@ -5218,13 +5215,16 @@
       <c r="N2" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O2" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P2" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6">
         <v>305001</v>
@@ -5254,7 +5254,7 @@
         <v>99</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>4</v>
@@ -5265,22 +5265,25 @@
       <c r="N3" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O3" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P3" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="6">
         <v>305010</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
@@ -5298,10 +5301,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>4</v>
@@ -5312,22 +5315,25 @@
       <c r="N4" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O4" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6">
         <v>305020</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="6" t="b">
         <v>0</v>
@@ -5345,10 +5351,10 @@
         <v>4</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>4</v>
@@ -5358,6 +5364,9 @@
       </c>
       <c r="N5" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>4</v>
@@ -5388,7 +5397,12 @@
       <c r="G7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>87</v>
       </c>
@@ -5404,13 +5418,16 @@
       <c r="N7" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O7" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P7" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="6">
         <v>305151</v>
@@ -5430,6 +5447,12 @@
       <c r="G8" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="J8" s="6" t="s">
         <v>87</v>
       </c>
@@ -5445,6 +5468,9 @@
       <c r="N8" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O8" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P8" s="7" t="s">
         <v>89</v>
       </c>
@@ -5454,13 +5480,13 @@
     </row>
     <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="6">
         <v>305180</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>86</v>
@@ -5474,16 +5500,43 @@
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="6">
+        <v>100</v>
+      </c>
+      <c r="M10" s="6">
+        <v>30</v>
+      </c>
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="6">
         <v>305181</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>86</v>
@@ -5497,22 +5550,49 @@
       <c r="G11" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="6">
+        <v>361</v>
+      </c>
+      <c r="M11" s="6">
+        <v>30</v>
+      </c>
+      <c r="N11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6">
         <v>305250</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="6" t="b">
         <v>0</v>
@@ -5523,28 +5603,46 @@
       <c r="G13" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="H13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="K13" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="L13" s="6">
+        <v>88</v>
+      </c>
+      <c r="M13" s="6">
+        <v>24</v>
+      </c>
       <c r="N13" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O13" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="6">
         <v>305251</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14" s="6" t="b">
         <v>0</v>
@@ -5555,11 +5653,29 @@
       <c r="G14" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="H14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="K14" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="L14" s="6">
+        <v>318</v>
+      </c>
+      <c r="M14" s="6">
+        <v>24</v>
+      </c>
       <c r="N14" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>89</v>
@@ -5594,10 +5710,10 @@
         <v>4</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>4</v>
@@ -5608,8 +5724,11 @@
       <c r="N15" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O15" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -5634,11 +5753,17 @@
       <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="H16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="J16" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>4</v>
@@ -5649,8 +5774,11 @@
       <c r="N16" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O16" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">

--- a/로스트아크/데이터테이블/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829EDAE7-1043-4B43-9948-B9F387D89BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DA90D9-CC3F-4077-B76E-15597C8D04ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1614,7 +1614,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3067,17 +3067,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">소모 자원 유형   
-</t>
+      <t xml:space="preserve">스킬 시전 가능 거리   </t>
     </r>
     <r>
       <rPr>
@@ -3100,7 +3090,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 없음 </t>
+      <t xml:space="preserve">: 제자리 시전 </t>
     </r>
     <r>
       <rPr>
@@ -3123,7 +3113,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>0.1~</t>
     </r>
     <r>
       <rPr>
@@ -3134,10 +3124,34 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 마나 </t>
-    </r>
-    <r>
-      <rPr>
+      <t>: N(m)이내의 거리</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -3145,7 +3159,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">/ </t>
+      <t xml:space="preserve">스킬 사용에 필요한 자원 유형   
+</t>
     </r>
     <r>
       <rPr>
@@ -3157,7 +3172,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -3168,7 +3183,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 배터리(스카우터 전용) </t>
+      <t xml:space="preserve">: 없음 </t>
     </r>
     <r>
       <rPr>
@@ -3191,7 +3206,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -3202,7 +3217,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 아이덴티티 게이지 1 </t>
+      <t xml:space="preserve">: 마나 </t>
     </r>
     <r>
       <rPr>
@@ -3225,7 +3240,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>11</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -3236,7 +3251,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 아이덴티티 게이지 2 </t>
+      <t xml:space="preserve">: 배터리(스카우터 전용) </t>
     </r>
     <r>
       <rPr>
@@ -3247,18 +3262,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
@@ -3270,7 +3274,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -3281,7 +3285,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 아이덴티티 게이지 3 </t>
+      <t xml:space="preserve">: 아이덴티티 게이지 1 </t>
     </r>
     <r>
       <rPr>
@@ -3292,18 +3296,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
@@ -3315,7 +3308,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20</t>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -3326,6 +3319,96 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">: 아이덴티티 게이지 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 아이덴티티 게이지 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">: 초각성 게이지
 </t>
     </r>
@@ -3467,74 +3550,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">스킬 시전 가능 거리   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 제자리 시전 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.1~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: N(m)이내의 거리</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <t>이연격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_06</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_07</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_08</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_09</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_10</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_11</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_12</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_13</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_14</t>
+  </si>
+  <si>
+    <t>선풍참흔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공의연무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_16</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_17</t>
+  </si>
+  <si>
+    <t>풍진격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열공참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회선창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일섬각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철량추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡출수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반월섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연환섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질풍참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나선창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사두룡격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉열파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유성강천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절룡세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_19</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_20</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_21</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_22</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_23</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_24</t>
+  </si>
+  <si>
+    <t>스탠스 변경(난무-&gt;집중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠스 변경(집중-&gt;난무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_28</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_29</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_30</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_31</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_32</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_33</t>
+  </si>
+  <si>
+    <t>초각성 스킬 - 난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초각성 스킬 - 집중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 초각성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 초각성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가심공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격 [속성 강타]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4016,7 +4205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4146,6 +4335,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4155,11 +4350,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4484,7 +4685,7 @@
   <dimension ref="B1:Q19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -4503,11 +4704,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="12" t="s">
@@ -4618,7 +4819,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -4664,7 +4865,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -4782,10 +4983,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4803,7 +5005,7 @@
     <col min="11" max="11" width="8.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.8984375" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.8984375" style="44" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
@@ -4847,7 +5049,7 @@
       <c r="M1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4891,7 +5093,7 @@
       <c r="M2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4935,7 +5137,7 @@
       <c r="M3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4977,9 +5179,9 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="44" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5021,27 +5223,68 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6">
+        <v>305030</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>30</v>
+      </c>
+      <c r="L6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
+      <c r="A7" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B7" s="6">
-        <v>305150</v>
+        <v>305040</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6" t="b">
         <v>0</v>
@@ -5052,37 +5295,37 @@
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
+      <c r="H7" s="6">
+        <v>2</v>
       </c>
       <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>88</v>
-      </c>
-      <c r="K7" s="6">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="L7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>62</v>
+        <v>4</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>50</v>
+      <c r="A8" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="B8" s="6">
-        <v>305151</v>
+        <v>305050</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6">
         <v>11</v>
@@ -5094,19 +5337,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="K8" s="6">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L8" s="6" t="b">
         <v>0</v>
@@ -5114,300 +5357,748 @@
       <c r="M8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="47" t="s">
-        <v>62</v>
+      <c r="N8" s="44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
+      <c r="A9" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="6">
+        <v>305051</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>206</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>42</v>
+      <c r="A10" s="49" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="6">
-        <v>305180</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>305060</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="6">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>100</v>
-      </c>
-      <c r="K10" s="6">
-        <v>30</v>
-      </c>
-      <c r="L10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
+      <c r="A11" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="6">
-        <v>305181</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>305070</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="6">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6">
-        <v>7</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>361</v>
-      </c>
-      <c r="K11" s="6">
-        <v>30</v>
-      </c>
-      <c r="L11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
+      <c r="A12" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="6">
+        <v>305080</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
+      <c r="A13" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="B13" s="6">
-        <v>305250</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>305090</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="D13" s="6">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>88</v>
-      </c>
-      <c r="K13" s="6">
-        <v>24</v>
-      </c>
-      <c r="L13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="47" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
+      <c r="A14" s="49" t="s">
+        <v>86</v>
       </c>
       <c r="B14" s="6">
-        <v>305251</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>305100</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="6">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>6</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>318</v>
-      </c>
-      <c r="K14" s="6">
-        <v>24</v>
-      </c>
-      <c r="L14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="47" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
+      <c r="A15" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="6">
-        <v>305260</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>305110</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="D15" s="6">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>20</v>
-      </c>
-      <c r="G15" s="6">
-        <v>7</v>
-      </c>
-      <c r="H15" s="6">
-        <v>4</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="6">
-        <v>300</v>
-      </c>
-      <c r="L15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="47" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="6">
+        <v>305120</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="6">
+        <v>305130</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="6">
+        <v>305140</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6">
+        <v>305150</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>88</v>
+      </c>
+      <c r="K19" s="6">
+        <v>24</v>
+      </c>
+      <c r="L19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6">
+        <v>305151</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>318</v>
+      </c>
+      <c r="K20" s="6">
+        <v>24</v>
+      </c>
+      <c r="L20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6">
+        <v>305160</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="6">
+        <v>305170</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="6">
+        <v>305180</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>100</v>
+      </c>
+      <c r="K23" s="6">
+        <v>30</v>
+      </c>
+      <c r="L23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="6">
+        <v>305181</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6">
+        <v>7</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>361</v>
+      </c>
+      <c r="K24" s="6">
+        <v>30</v>
+      </c>
+      <c r="L24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6">
+        <v>305190</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="6">
+        <v>305200</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="6">
+        <v>305210</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="6">
+        <v>305220</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="6">
+        <v>305230</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="6">
+        <v>305240</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="6">
+        <v>305250</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="6">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>88</v>
+      </c>
+      <c r="K31" s="6">
+        <v>24</v>
+      </c>
+      <c r="L31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="6">
+        <v>305251</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="6">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>318</v>
+      </c>
+      <c r="K32" s="6">
+        <v>24</v>
+      </c>
+      <c r="L32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>305260</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>20</v>
+      </c>
+      <c r="G33" s="6">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6">
+        <v>4</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="6">
+        <v>300</v>
+      </c>
+      <c r="L33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B34" s="6">
         <v>305270</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D34" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
         <v>5</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H34" s="6">
         <v>4</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K34" s="6">
         <v>300</v>
       </c>
-      <c r="L16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="L34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="47" t="s">
-        <v>63</v>
+      <c r="N34" s="44" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
+    <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="6">
+        <v>305280</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="6">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
+    <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="6">
+        <v>305290</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="6">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
+    <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="6">
+        <v>305300</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
+    <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="6">
+        <v>305310</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
+    <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="6">
+        <v>305320</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="6">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+    <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="6">
+        <v>305330</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
+    <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
